--- a/Data_Files/Copy of 2221 TRT_VID.xlsx
+++ b/Data_Files/Copy of 2221 TRT_VID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echandrasekara2/Documents/Kobza/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echandrasekara2/Documents/Kobza/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F6E3D6-9646-5546-8C6E-A09146964CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506FECE-A5FE-A747-96DC-7213E9E464E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3220" windowWidth="28040" windowHeight="15880" xr2:uid="{C566143A-8D9F-6B43-9F70-2B95302EA147}"/>
+    <workbookView xWindow="760" yWindow="800" windowWidth="28040" windowHeight="15880" xr2:uid="{C566143A-8D9F-6B43-9F70-2B95302EA147}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data_Files/Copy of 2221 TRT_VID.xlsx
+++ b/Data_Files/Copy of 2221 TRT_VID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echandrasekara2/Documents/Kobza/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506FECE-A5FE-A747-96DC-7213E9E464E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5718B81-418C-884E-9D72-E084A962CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="800" windowWidth="28040" windowHeight="15880" xr2:uid="{C566143A-8D9F-6B43-9F70-2B95302EA147}"/>
+    <workbookView xWindow="760" yWindow="720" windowWidth="28040" windowHeight="15880" xr2:uid="{C566143A-8D9F-6B43-9F70-2B95302EA147}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data_Files/Copy of 2221 TRT_VID.xlsx
+++ b/Data_Files/Copy of 2221 TRT_VID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echandrasekara2/Documents/Kobza/Data_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5718B81-418C-884E-9D72-E084A962CC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E45E25-4119-4842-B980-5432AE476312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="720" windowWidth="28040" windowHeight="15880" xr2:uid="{C566143A-8D9F-6B43-9F70-2B95302EA147}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
